--- a/output.xlsx
+++ b/output.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="10668" windowHeight="9060" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="outR^2" sheetId="1" r:id="rId1"/>
-    <sheet name="R^2oos" sheetId="2" r:id="rId2"/>
-    <sheet name="inR^2" sheetId="3" r:id="rId3"/>
+    <sheet name="inR^2" sheetId="3" r:id="rId2"/>
+    <sheet name="R^2oos" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>LR</t>
   </si>
@@ -68,11 +81,14 @@
   <si>
     <t>T8</t>
   </si>
+  <si>
+    <t>overall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1008,8 +1024,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1051,256 +1067,256 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.453433609830923</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.551068338432908</v>
+      <c r="B2" s="2">
+        <v>0.0477302904034473</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0323379252479494</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5416123931451</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.562027570498186</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.504199810973756</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.469267972155013</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.707020231577217</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.756604015827179</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.828623269577533</v>
+        <v>0.0566342729848477</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.063556786461228</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0455244747271948</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.0480077282150176</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.0199445519172442</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.06454206</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.06556636</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.329599585612037</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.37929756278783</v>
+      <c r="B3" s="2">
+        <v>0.0128619950180496</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.00523566742293458</v>
       </c>
       <c r="D3" s="2">
-        <v>0.404679454620797</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.400863087720126</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.363927942768147</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.34403981002035</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.543939826587434</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.672185897827148</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.719625381827536</v>
+        <v>0.0270099096323263</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0216821158395675</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0152260557147438</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.0136556041878285</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.0162995836388271</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.05522043</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.04587501</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.348944426102502</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.344099131983353</v>
+      <c r="B4" s="2">
+        <v>0.0151512849769017</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.015016130370797</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3485258514779</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.360336352888418</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.355245195794216</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.357060378016047</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.5179570052513</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.612463235855103</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.65700384625377</v>
+        <v>0.035397860210683</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0410478356201578</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0355852713881058</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.0158389940348337</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.0112039620402647</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.05474776</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.04488599</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.148517133391472</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.13464045810587</v>
+      <c r="B5" s="2">
+        <v>0.0313783670834843</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.00306958548414271</v>
       </c>
       <c r="D5" s="2">
-        <v>0.13988443300163</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.146446708116099</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.146281656089096</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.148524662424387</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.239424823438016</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.327730655670166</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.38791923876047</v>
+        <v>0.0070105297722094</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.00935618417674178</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.000915110674536423</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.0294488464012186</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-0.000169274930722496</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.05059481</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.0525651</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.219241069914265</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.195277753193868</v>
+      <c r="B6" s="2">
+        <v>0.0112496101182499</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.0197903673485629</v>
       </c>
       <c r="D6" s="2">
-        <v>0.194164845104027</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.220313154779879</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.214644517904347</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.219581804190386</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.372639008355895</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.54590380191803</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.650605329619197</v>
+        <v>-0.000481285200905512</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0127606945549172</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.00685901488079343</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.0127630181604863</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.000631309776668365</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.03555828</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.02788013</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.103455889660779</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.0872630777489142</v>
+      <c r="B7" s="2">
+        <v>0.0135153806268806</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.0159865279404803</v>
       </c>
       <c r="D7" s="2">
-        <v>0.0855974481266946</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.102559804465825</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.101137085801741</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.102788889893968</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.198146756064543</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.396521985530853</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.49595732761558</v>
+        <v>-0.0248155845895814</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0135208892302543</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.00661158756382108</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.0134880608424305</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-0.0071870756836947</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.0473296</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.04562908</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.114104909915626</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.103829898375168</v>
+      <c r="B8" s="2">
+        <v>0.0202517765328339</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.00233019717918892</v>
       </c>
       <c r="D8" s="2">
-        <v>0.0946409210186997</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.114564260784795</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.113739579812668</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.114037109896773</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.203803480014899</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.440259337425232</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.583173522849567</v>
+        <v>-0.00482705281329654</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0202508975529875</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0150528024624237</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.0201389542025994</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.000124372540044604</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.06339008</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.07474744</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.0640002324206688</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.0551609359936294</v>
+      <c r="B9" s="2">
+        <v>0.0149094574110302</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.0201332021280862</v>
       </c>
       <c r="D9" s="2">
-        <v>0.0503324391972136</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.0651451598858314</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.0643106346393366</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.0639644996212155</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.133724972941653</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.350756645202637</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.336949001513918</v>
+        <v>-0.0206550980618925</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.0149678316642059</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.0101117859883515</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.0153984565542766</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.000235470927118953</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.0455724</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.04972917</v>
       </c>
     </row>
   </sheetData>
@@ -1313,91 +1329,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="3" width="12.8888888888889"/>
-    <col min="4" max="4" width="11.7777777777778"/>
-    <col min="5" max="9" width="12.8888888888889"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0.132837383826407</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.125470047271928</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.122902512679883</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.138491559807654</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.134513923645996</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.133922366069498</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.232473910598309</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.420427082895005</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.477865354892625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1440,31 +1375,31 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>0.63005912116456</v>
+        <v>0.106171128441893</v>
       </c>
       <c r="C2" s="1">
-        <v>0.560623048708905</v>
+        <v>0.101354426166395</v>
       </c>
       <c r="D2" s="2">
-        <v>0.523462082334162</v>
+        <v>0.0987810863280871</v>
       </c>
       <c r="E2" s="1">
-        <v>0.572258395772882</v>
+        <v>0.0870512283974769</v>
       </c>
       <c r="F2" s="1">
-        <v>0.584912630808512</v>
+        <v>0.103290546588108</v>
       </c>
       <c r="G2" s="1">
-        <v>0.615487914241114</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.708348545315385</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
+        <v>0.106129562602122</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.0301272682785535</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.84100217</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.2403109</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1472,31 +1407,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0.631809569958916</v>
+        <v>0.0714450393476034</v>
       </c>
       <c r="C3" s="1">
-        <v>0.572300523320937</v>
+        <v>0.0667148092741797</v>
       </c>
       <c r="D3" s="2">
-        <v>0.550846515123275</v>
+        <v>0.0677576564839516</v>
       </c>
       <c r="E3" s="1">
-        <v>0.597638171220264</v>
+        <v>0.0704609371450499</v>
       </c>
       <c r="F3" s="1">
-        <v>0.594491154626829</v>
+        <v>0.06946533379537</v>
       </c>
       <c r="G3" s="1">
-        <v>0.621590111111841</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.822212699423774</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
+        <v>0.0705956419559318</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.0256793492083525</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.8075117</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.2405864</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1504,31 +1439,31 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>0.625878540621579</v>
+        <v>0.0875716356218454</v>
       </c>
       <c r="C4" s="1">
-        <v>0.573981323345888</v>
+        <v>0.0822600375543885</v>
       </c>
       <c r="D4" s="2">
-        <v>0.564683195648297</v>
+        <v>0.0828011649604444</v>
       </c>
       <c r="E4" s="1">
-        <v>0.604111018789202</v>
+        <v>0.0783098693905462</v>
       </c>
       <c r="F4" s="1">
-        <v>0.599265943175881</v>
+        <v>0.074187655644535</v>
       </c>
       <c r="G4" s="1">
-        <v>0.616748009807868</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.80454931284965</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
+        <v>0.0875657717212993</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.0200357184270705</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.7832457</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.17085797</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1536,31 +1471,31 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>0.625421393508051</v>
+        <v>0.070259900757917</v>
       </c>
       <c r="C5" s="1">
-        <v>0.571769186250103</v>
+        <v>0.0654801232390492</v>
       </c>
       <c r="D5" s="2">
-        <v>0.568741353751594</v>
+        <v>0.066413650339741</v>
       </c>
       <c r="E5" s="1">
-        <v>0.613348954600725</v>
+        <v>0.0628654997547849</v>
       </c>
       <c r="F5" s="1">
-        <v>0.606494084839873</v>
+        <v>0.0608511193611068</v>
       </c>
       <c r="G5" s="1">
-        <v>0.624745275087889</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.802578719063207</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
+        <v>0.0698134913598195</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.0182845337125616</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.74912393</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.1397692</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1568,31 +1503,31 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>0.620188666051632</v>
+        <v>0.0702690225761377</v>
       </c>
       <c r="C6" s="1">
-        <v>0.567133976993277</v>
+        <v>0.0654932681817688</v>
       </c>
       <c r="D6" s="2">
-        <v>0.535835907836639</v>
+        <v>0.0666343861064723</v>
       </c>
       <c r="E6" s="1">
-        <v>0.615981853022227</v>
+        <v>0.0659183535352861</v>
       </c>
       <c r="F6" s="1">
-        <v>0.618709666647303</v>
+        <v>0.0689811361995187</v>
       </c>
       <c r="G6" s="1">
-        <v>0.620126566236849</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.794306030548661</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
+        <v>0.0702241684945538</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0166289141832944</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.71688044</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.24143225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1600,31 +1535,31 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>0.567707663390759</v>
+        <v>0.0637380218114395</v>
       </c>
       <c r="C7" s="1">
-        <v>0.513007088708491</v>
+        <v>0.0588529370903709</v>
       </c>
       <c r="D7" s="2">
-        <v>0.4857139548587</v>
+        <v>0.0609197649821569</v>
       </c>
       <c r="E7" s="1">
-        <v>0.566658734486792</v>
+        <v>0.0637380011999596</v>
       </c>
       <c r="F7" s="1">
-        <v>0.565768083808464</v>
+        <v>0.0624479006810357</v>
       </c>
       <c r="G7" s="1">
-        <v>0.567569839347327</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.742025854783654</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
+        <v>0.063732415678174</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.0143802630201533</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.6723019</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.26005244</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1632,31 +1567,31 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>0.511300663070896</v>
+        <v>0.0602361650039029</v>
       </c>
       <c r="C8" s="1">
-        <v>0.456301027775449</v>
+        <v>0.055481487913435</v>
       </c>
       <c r="D8" s="2">
-        <v>0.403336539312267</v>
+        <v>0.0575297584447228</v>
       </c>
       <c r="E8" s="1">
-        <v>0.510415638988253</v>
+        <v>0.0602361632321359</v>
       </c>
       <c r="F8" s="1">
-        <v>0.50875998481121</v>
+        <v>0.058789606197125</v>
       </c>
       <c r="G8" s="1">
-        <v>0.511293990016349</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.684422671026285</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
+        <v>0.060228414157897</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.0110948271980407</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.6429101</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.2891732</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1664,31 +1599,115 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>0.371961469013397</v>
+        <v>0.0553609488648218</v>
       </c>
       <c r="C9" s="1">
-        <v>0.323262276527321</v>
+        <v>0.0495577422273017</v>
       </c>
       <c r="D9" s="2">
-        <v>0.285620284638326</v>
+        <v>0.0508057494494927</v>
       </c>
       <c r="E9" s="1">
-        <v>0.371270055131504</v>
+        <v>0.0553581346280086</v>
       </c>
       <c r="F9" s="1">
-        <v>0.369405872975769</v>
+        <v>0.0531365096292102</v>
       </c>
       <c r="G9" s="1">
-        <v>0.372013263684041</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.522645894171224</v>
-      </c>
-      <c r="I9" s="1">
+        <v>0.0553116722863014</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.00806346304507366</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.60143816</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.26436174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="3" width="12.8888888888889"/>
+    <col min="4" max="4" width="11.7777777777778"/>
+    <col min="5" max="9" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0194474709038517</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.00802803188037826</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.00349602607026356</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0222244946416873</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0152394898497912</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.0196688736276089</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.00360298896098288</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.05140583</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.0512732</v>
       </c>
     </row>
   </sheetData>
